--- a/helper/Topic.xlsx
+++ b/helper/Topic.xlsx
@@ -40,7 +40,7 @@
     <t>EB_Community</t>
   </si>
   <si>
-    <t>EB_Service_Operation_ESO</t>
+    <t>EB_Service_Operation_(ESO)</t>
   </si>
   <si>
     <t>EB_Network_Development</t>

--- a/helper/Topic.xlsx
+++ b/helper/Topic.xlsx
@@ -106,7 +106,7 @@
     <t>COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-Digital-Digital_System_Operation</t>
   </si>
   <si>
-    <t>COE-HR-Culture_Development,COE-HR-Organization_Development,COE-HR-Recruiting,COE-HR-Salary_Management,COE-HR-EHS,COE-HR-SSC_Management</t>
+    <t>COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-HR-EHS</t>
   </si>
   <si>
     <t>COE-Legal-EU_Legal</t>

--- a/helper/Topic.xlsx
+++ b/helper/Topic.xlsx
@@ -76,7 +76,7 @@
     <t>COE_Logistic</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>EB-BD-GR,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development</t>
@@ -106,7 +106,7 @@
     <t>COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-Digital-Digital_System_Operation</t>
   </si>
   <si>
-    <t>COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-HR-EHS</t>
+    <t>COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-HR-EHS,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery</t>
   </si>
   <si>
     <t>COE-Legal-EU_Legal</t>
@@ -118,7 +118,7 @@
     <t>COE-Finance-Tax,COE-Finance-Accounting,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Finance-Controling</t>
   </si>
   <si>
-    <t>COE-PE-Product_Experience,COE-PE-Product_Planning,COE-PE-Vehicle_Quality</t>
+    <t>COE-PD-Product_Experience,COE-PD-Product_Planning,COE-PD-Vehicle_Quality</t>
   </si>
   <si>
     <t>COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch</t>

--- a/helper/Topic.xlsx
+++ b/helper/Topic.xlsx
@@ -40,7 +40,7 @@
     <t>EB_Community</t>
   </si>
   <si>
-    <t>EB_Service_Operation_(ESO)</t>
+    <t>EB_Service_Operation</t>
   </si>
   <si>
     <t>EB_Network_Development</t>
@@ -64,7 +64,7 @@
     <t>COE_Finance</t>
   </si>
   <si>
-    <t>COE_Product_Experience</t>
+    <t>COE_Product_Design</t>
   </si>
   <si>
     <t>COE_NIO_Life</t>

--- a/helper/Topic.xlsx
+++ b/helper/Topic.xlsx
@@ -49,7 +49,7 @@
     <t>EB_Enabling</t>
   </si>
   <si>
-    <t>COE_Digital_</t>
+    <t>COE_Digital</t>
   </si>
   <si>
     <t>COE_HR</t>
@@ -94,7 +94,7 @@
     <t>EB-Community-NIO_Point_&amp;_Value,EB-Community-Community_Events,EB-Community-Community_Development,EB-Community-Referral_Development,EB-Community-IP_Management</t>
   </si>
   <si>
-    <t>EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_</t>
+    <t>EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics</t>
   </si>
   <si>
     <t>EB-ND-Network_Development,EB-ND-Design_Management,EB-ND-NIO_House_Operation,EB-ND-Construction_Management</t>

--- a/helper/Topic.xlsx
+++ b/helper/Topic.xlsx
@@ -85,7 +85,7 @@
     <t>EB-UO-Subscription_Product_&amp;_management,EB-UO-LOTD_Operation,EB-UO-2B_Business_Product,EB-UO-Commercial_Product,EB-UO-Business_Intelligence,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning</t>
   </si>
   <si>
-    <t>EB-UD-PR,EB-UD-Communication,EB-UD-Events</t>
+    <t>EB-UD-PR,EB-UD-Communication_&amp;_Event</t>
   </si>
   <si>
     <t>EB-Satisfaction-SCR,EB-Satisfaction-Satisfaction_Operation</t>
